--- a/002-‘’Choco‘’SpecialRemake/Old_Version/009-BOM_CK_085_DCDC_Special_remake.xlsx
+++ b/002-‘’Choco‘’SpecialRemake/Old_Version/009-BOM_CK_085_DCDC_Special_remake.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E17291-D287-4FD8-BA1A-4C733534576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EDFA3E-CDFC-4E3B-BB50-A49995D6B41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1788" yWindow="3624" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Special_Special remake_1_20" sheetId="1" r:id="rId1"/>
@@ -332,9 +332,6 @@
     <t>19</t>
   </si>
   <si>
-    <t>M3406-ADJ</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>西安航天民芯</t>
   </si>
   <si>
-    <t>C83224</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -411,6 +405,13 @@
   </si>
   <si>
     <t>C25792</t>
+  </si>
+  <si>
+    <t>C22462728</t>
+  </si>
+  <si>
+    <t>MT3406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -797,10 +798,10 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
@@ -1359,25 +1360,25 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>106</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1385,31 +1386,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>111</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>113</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1417,31 +1418,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>117</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1449,31 +1450,31 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
         <v>122</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" t="s">
-        <v>124</v>
       </c>
       <c r="E23" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1481,31 +1482,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
         <v>127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
       </c>
       <c r="E24" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" t="s">
-        <v>130</v>
       </c>
       <c r="H24" t="s">
         <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
